--- a/test_case_prefix_postfix.xlsx
+++ b/test_case_prefix_postfix.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25514"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCBDAFC0-02BA-4697-AAA6-9AC102352075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9391F06-9DB9-477D-B29E-27F786A910EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LC_Prefix_test_cases" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
     <t>Excepted Result</t>
   </si>
   <si>
-    <t>Remarks</t>
+    <t>Test result</t>
   </si>
   <si>
     <t>ip= ["kuk","kuko", "kukini","kukazu","kuksu", "kuksui"]</t>
@@ -57,7 +57,7 @@
     <t>kuk</t>
   </si>
   <si>
-    <t>Ok</t>
+    <t>Success</t>
   </si>
   <si>
     <t>ip = ["asd","xsd", "we"]</t>
@@ -481,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -491,6 +491,7 @@
     <col min="2" max="2" width="26.5703125" customWidth="1"/>
     <col min="3" max="3" width="20.5703125" customWidth="1"/>
     <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -621,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C48E75-B493-4E80-AC98-3BF543796D90}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -631,6 +632,7 @@
     <col min="2" max="2" width="38" customWidth="1"/>
     <col min="3" max="3" width="28.28515625" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
